--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt10a-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt10a-Fzd1.xlsx
@@ -537,10 +537,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1705566666666667</v>
+        <v>0.05606233333333333</v>
       </c>
       <c r="H2">
-        <v>0.51167</v>
+        <v>0.168187</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.316217666666667</v>
+        <v>1.089882</v>
       </c>
       <c r="N2">
-        <v>3.948653</v>
+        <v>3.269646</v>
       </c>
       <c r="O2">
-        <v>0.04607034270304907</v>
+        <v>0.03774844717592688</v>
       </c>
       <c r="P2">
-        <v>0.04607034270304908</v>
+        <v>0.03774844717592687</v>
       </c>
       <c r="Q2">
-        <v>0.2244896978344444</v>
+        <v>0.061101327978</v>
       </c>
       <c r="R2">
-        <v>2.02040728051</v>
+        <v>0.549911951802</v>
       </c>
       <c r="S2">
-        <v>0.04607034270304907</v>
+        <v>0.03774844717592688</v>
       </c>
       <c r="T2">
-        <v>0.04607034270304908</v>
+        <v>0.03774844717592687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1705566666666667</v>
+        <v>0.05606233333333333</v>
       </c>
       <c r="H3">
-        <v>0.51167</v>
+        <v>0.168187</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>72.700791</v>
       </c>
       <c r="O3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152114</v>
       </c>
       <c r="P3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152113</v>
       </c>
       <c r="Q3">
-        <v>4.133201525663333</v>
+        <v>1.358591992879667</v>
       </c>
       <c r="R3">
-        <v>37.19881373097</v>
+        <v>12.227327935917</v>
       </c>
       <c r="S3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152114</v>
       </c>
       <c r="T3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1705566666666667</v>
+        <v>0.05606233333333333</v>
       </c>
       <c r="H4">
-        <v>0.51167</v>
+        <v>0.168187</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.784383</v>
+        <v>2.816943666666667</v>
       </c>
       <c r="N4">
-        <v>8.353149</v>
+        <v>8.450831000000001</v>
       </c>
       <c r="O4">
-        <v>0.09745916824791434</v>
+        <v>0.0975658366673901</v>
       </c>
       <c r="P4">
-        <v>0.09745916824791434</v>
+        <v>0.09756583666739009</v>
       </c>
       <c r="Q4">
-        <v>0.4748950832033333</v>
+        <v>0.1579244348218889</v>
       </c>
       <c r="R4">
-        <v>4.27405574883</v>
+        <v>1.421319913397</v>
       </c>
       <c r="S4">
-        <v>0.09745916824791434</v>
+        <v>0.0975658366673901</v>
       </c>
       <c r="T4">
-        <v>0.09745916824791434</v>
+        <v>0.09756583666739009</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1705566666666667</v>
+        <v>0.05606233333333333</v>
       </c>
       <c r="H5">
-        <v>0.51167</v>
+        <v>0.168187</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2355413333333333</v>
+        <v>0.7318113333333334</v>
       </c>
       <c r="N5">
-        <v>0.7066239999999999</v>
+        <v>2.195434</v>
       </c>
       <c r="O5">
-        <v>0.008244434201283157</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="P5">
-        <v>0.008244434201283159</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="Q5">
-        <v>0.04017314467555555</v>
+        <v>0.04102705090644444</v>
       </c>
       <c r="R5">
-        <v>0.3615583020799999</v>
+        <v>0.369243458158</v>
       </c>
       <c r="S5">
-        <v>0.008244434201283157</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="T5">
-        <v>0.008244434201283159</v>
+        <v>0.0253465434414716</v>
       </c>
     </row>
   </sheetData>
